--- a/财务与流水/馋唻买-听涛路店成本明细.xlsx
+++ b/财务与流水/馋唻买-听涛路店成本明细.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="28000" windowHeight="15800"/>
   </bookViews>
   <sheets>
-    <sheet name="成本清单" sheetId="1" r:id="rId1"/>
+    <sheet name="开店成本清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>总预算(元)</t>
   </si>
@@ -37,7 +37,7 @@
     <t>房租</t>
   </si>
   <si>
-    <t>房租押金（目前老池垫付）</t>
+    <t>房租押金</t>
   </si>
   <si>
     <t>半年房租：年租金5.2万，半年付</t>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>小米手机</t>
+  </si>
+  <si>
+    <t>食材</t>
+  </si>
+  <si>
+    <t>开店首批食材</t>
   </si>
 </sst>
 </file>
@@ -96,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,45 +117,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,11 +154,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,17 +185,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,46 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,23 +466,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,13 +507,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,16 +538,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,8 +555,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,148 +565,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -790,8 +796,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="成本明细" displayName="成本明细" ref="A5:C20">
-  <autoFilter ref="A5:C20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="成本明细" displayName="成本明细" ref="A5:C21">
+  <autoFilter ref="A5:C21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="金额(元)" dataDxfId="0"/>
     <tableColumn id="2" name="分类" dataDxfId="1"/>
@@ -1059,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1086,7 +1092,7 @@
       </c>
       <c r="C2" s="5">
         <f>SUM(成本明细[金额(元)])</f>
-        <v>67117.5</v>
+        <v>80377.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1095,7 +1101,7 @@
       </c>
       <c r="C3" s="5">
         <f>C1-C2</f>
-        <v>32882.5</v>
+        <v>19622.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1272,6 +1278,17 @@
       </c>
       <c r="C20" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>13260</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/财务与流水/馋唻买-听涛路店成本明细.xlsx
+++ b/财务与流水/馋唻买-听涛路店成本明细.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="开店成本清单" sheetId="1" r:id="rId1"/>
+    <sheet name="202602" sheetId="2" r:id="rId2"/>
+    <sheet name="202603" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -117,32 +119,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,29 +133,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -187,45 +143,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +171,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -269,181 +271,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +469,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,15 +519,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -507,17 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,114 +562,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -652,61 +654,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,7 +1070,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1298,4 +1300,36 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/财务与流水/馋唻买-听涛路店成本明细.xlsx
+++ b/财务与流水/馋唻买-听涛路店成本明细.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\ChanWeiMai\财务与流水\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DCDB54-0E49-4247-A5C9-79FFD87B8620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="7785" yWindow="2070" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="开店成本清单"/>
-    <sheet r:id="rId2" sheetId="2" name="202602"/>
-    <sheet r:id="rId3" sheetId="3" name="202603"/>
+    <sheet name="开店成本清单" sheetId="1" r:id="rId1"/>
+    <sheet name="202602" sheetId="2" r:id="rId2"/>
+    <sheet name="202603" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>总预算(元)</t>
   </si>
@@ -100,18 +119,69 @@
   </si>
   <si>
     <t>开店首批食材</t>
+  </si>
+  <si>
+    <t>装修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装修尾款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖店铺装修</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码点餐物料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>堂食</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,6 +190,27 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,64 +240,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A5:C22" displayName="成本明细" name="成本明细" id="1" totalsRowShown="0">
-  <autoFilter ref="A5:C22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="成本明细" displayName="成本明细" ref="A5:C26" totalsRowShown="0">
+  <autoFilter ref="A5:C26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn name="金额(元)" id="1"/>
-    <tableColumn name="分类" id="2"/>
-    <tableColumn name="说明" id="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="金额(元)"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="分类"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="说明"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19659231-29C2-4D4F-8456-9275C3197370}" name="成本明细3" displayName="成本明细3" ref="A7:C11" totalsRowShown="0">
+  <autoFilter ref="A7:C11" xr:uid="{19659231-29C2-4D4F-8456-9275C3197370}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5FFAC7E7-C550-4B79-9D1E-34F74804D903}" name="营业额"/>
+    <tableColumn id="2" xr3:uid="{040FE7B2-A40B-4A8F-A639-F187A6E6331B}" name="分类"/>
+    <tableColumn id="3" xr3:uid="{2DFC5D06-461C-4BD4-B594-13EA3BF933D9}" name="说明"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -215,10 +322,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -256,71 +363,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -348,7 +455,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -371,11 +478,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -384,13 +491,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -400,7 +507,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -409,7 +516,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,7 +525,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -426,10 +533,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -494,252 +601,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="37.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.25" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>SUM(成本明细[金额(元)])</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+        <v>88293.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>C1-C2</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+        <v>11706.399999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>10000</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26000</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6000</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3000</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
+    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2100</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>340</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>200</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
+    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11000</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
+    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5000</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
+    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>755</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>190</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="8">
+    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>405.9</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
+    <row r="18" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>228</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
-      <c r="A19" s="8">
+    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>639.5</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
-      <c r="A20" s="8">
-        <v>1259.1</v>
-      </c>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1259.0999999999999</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="5">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>1000</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+    <row r="22" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>13260</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>6000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>640</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -748,7 +886,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -756,23 +978,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/财务与流水/馋唻买-听涛路店成本明细.xlsx
+++ b/财务与流水/馋唻买-听涛路店成本明细.xlsx
@@ -1,41 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Github\ChanWeiMai\财务与流水\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DCDB54-0E49-4247-A5C9-79FFD87B8620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="2070" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="开店成本清单" sheetId="1" r:id="rId1"/>
     <sheet name="202602" sheetId="2" r:id="rId2"/>
     <sheet name="202603" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>总预算(元)</t>
   </si>
@@ -121,107 +102,425 @@
     <t>开店首批食材</t>
   </si>
   <si>
-    <t>装修</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>扫码点餐物料</t>
   </si>
   <si>
     <t>装修尾款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外卖店铺装修</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码点餐物料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>外卖首日刷单</t>
   </si>
   <si>
     <t>成本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额</t>
   </si>
   <si>
     <t>利润</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>堂食</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>京东</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>淘宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>美团</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -233,85 +532,364 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="成本明细" displayName="成本明细" ref="A5:C26" totalsRowShown="0">
-  <autoFilter ref="A5:C26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="成本明细" displayName="成本明细" ref="A5:C26" totalsRowShown="0">
+  <autoFilter ref="A5:C26"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="金额(元)"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="分类"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="说明"/>
+    <tableColumn id="1" name="金额(元)"/>
+    <tableColumn id="2" name="分类"/>
+    <tableColumn id="3" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19659231-29C2-4D4F-8456-9275C3197370}" name="成本明细3" displayName="成本明细3" ref="A7:C11" totalsRowShown="0">
-  <autoFilter ref="A7:C11" xr:uid="{19659231-29C2-4D4F-8456-9275C3197370}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="成本明细3" displayName="成本明细3" ref="A7:C11" totalsRowShown="0">
+  <autoFilter ref="A7:C11"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5FFAC7E7-C550-4B79-9D1E-34F74804D903}" name="营业额"/>
-    <tableColumn id="2" xr3:uid="{040FE7B2-A40B-4A8F-A639-F187A6E6331B}" name="分类"/>
-    <tableColumn id="3" xr3:uid="{2DFC5D06-461C-4BD4-B594-13EA3BF933D9}" name="说明"/>
+    <tableColumn id="1" name="营业额"/>
+    <tableColumn id="2" name="分类"/>
+    <tableColumn id="3" name="说明"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,289 +1174,299 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="3" max="3" width="37.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <f>SUM(成本明细[金额(元)])</f>
-        <v>88293.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+        <v>88793.6</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <f>C1-C2</f>
-        <v>11706.399999999994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+        <v>11206.4</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1"/>
+    <row r="5" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A6" s="7">
         <v>10000</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A7" s="7">
         <v>26000</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A8" s="7">
         <v>6000</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A9" s="7">
         <v>3000</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A10" s="7">
         <v>2100</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A11" s="7">
         <v>340</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A12" s="7">
         <v>200</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A13" s="7">
         <v>11000</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A14" s="7">
         <v>5000</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A15" s="7">
         <v>755</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A16" s="7">
         <v>190</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A17" s="6">
         <v>405.9</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A18" s="7">
         <v>228</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A19" s="6">
         <v>639.5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>1259.0999999999999</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="20" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A20" s="6">
+        <v>1259.1</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+    <row r="21" ht="18.75" customHeight="1" spans="1:3">
+      <c r="A21" s="9">
         <v>1000</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A22" s="7">
         <v>13260</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>276.10000000000002</v>
+    <row r="23" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A23" s="7">
+        <v>276.1</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="9">
+        <v>6000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9">
+        <v>640</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="9">
+        <v>500</v>
+      </c>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
-        <v>6000</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
-        <v>640</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -886,7 +1474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -896,73 +1484,73 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -970,17 +1558,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>